--- a/TwoCellCode/polarize_time_data_and_graphs/Polarize_Time_Nosignal.xlsx
+++ b/TwoCellCode/polarize_time_data_and_graphs/Polarize_Time_Nosignal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katie/Everything/HonorsProject/PairPolarity/TwoCellCode/polarize_time_data_and_graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5074B0-240B-0C4B-9874-24665B258BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA071937-CAD2-B741-84F4-0B7DBBA38BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" activeTab="3" xr2:uid="{24245B61-F31D-2A45-A36F-7A7DD3608B52}"/>
   </bookViews>
@@ -19,93 +19,59 @@
     <sheet name="Cell 1 and Cell 2 Times" sheetId="9" r:id="rId4"/>
     <sheet name="Yes Time" sheetId="3" r:id="rId5"/>
     <sheet name="LF Time" sheetId="4" r:id="rId6"/>
-    <sheet name="All (NP-&gt;0)" sheetId="5" r:id="rId7"/>
-    <sheet name="All (NP-&gt;2500)" sheetId="6" r:id="rId8"/>
+    <sheet name="Yes and LF Times" sheetId="10" r:id="rId7"/>
+    <sheet name="All (NP-&gt;0)" sheetId="5" r:id="rId8"/>
+    <sheet name="All (NP-&gt;2500)" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'All (NP excluded)'!$A$2:$A$598</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'All (NP excluded)'!$B$1</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'Cell 1 Time'!$B$1</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'Cell 1 Time'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Cell 1 Time'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Cell 1 Time'!$B$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Cell 1 Time'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Cell 1 Time'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Cell 1 Time'!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'Cell 1 Time'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'Cell 1 Time'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'Cell 1 Time'!$B$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Cell 2 Time'!$A$2:$A$601</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Cell 2 Time'!$B$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Cell 2 Time'!$B$2:$B$601</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Cell 1 and Cell 2 Times'!$A$2:$A$601</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Cell 1 and Cell 2 Times'!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Cell 1 and Cell 2 Times'!$B$2:$B$601</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Cell 1 and Cell 2 Times'!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Cell 1 and Cell 2 Times'!$C$2:$C$601</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'All (NP excluded)'!$B$2:$B$598</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Cell 1 Time'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Cell 1 Time'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Cell 1 Time'!$B$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Cell 1 Time'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Cell 1 Time'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">'Cell 1 Time'!$B$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">'Cell 1 Time'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">'Cell 1 Time'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">'Cell 1 Time'!$B$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">'Cell 1 Time'!$B$2:$B$601</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Yes Time'!$A$2:$A$598</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Yes Time'!$B$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Yes Time'!$B$2:$B$598</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'LF Time'!$A$2:$A$601</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'LF Time'!$B$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'LF Time'!$B$2:$B$601</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Yes and LF Times'!$A$2:$A$601</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Yes and LF Times'!$B$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Yes and LF Times'!$B$2:$B$601</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Yes and LF Times'!$C$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'All (NP excluded)'!$C$1</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">'Cell 2 Time'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">'Cell 2 Time'!$B$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">'Cell 2 Time'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">'Cell 2 Time'!$L$5</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">'Cell 2 Time'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">'Cell 2 Time'!$B$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">'Cell 2 Time'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">'Cell 1 and Cell 2 Times'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">'Cell 1 and Cell 2 Times'!$B$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">'Cell 1 and Cell 2 Times'!$B$2:$B$601</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Yes and LF Times'!$C$2:$C$601</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'All (NP-&gt;0)'!$A$2:$A$601</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'All (NP-&gt;0)'!$B$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'All (NP-&gt;0)'!$B$2:$B$601</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'All (NP-&gt;0)'!$C$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'All (NP-&gt;0)'!$C$2:$C$601</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'All (NP-&gt;0)'!$D$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'All (NP-&gt;0)'!$D$2:$D$601</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'All (NP-&gt;0)'!$E$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'All (NP-&gt;0)'!$E$2:$E$601</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'All (NP excluded)'!$C$2:$C$598</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">'Cell 1 and Cell 2 Times'!$C$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">'Cell 1 and Cell 2 Times'!$C$2:$C$601</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">'Cell 1 and Cell 2 Times'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">'Cell 1 and Cell 2 Times'!$B$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">'Cell 1 and Cell 2 Times'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">'Cell 1 and Cell 2 Times'!$C$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">'Cell 1 and Cell 2 Times'!$C$2:$C$601</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">'Cell 1 and Cell 2 Times'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">'Cell 1 and Cell 2 Times'!$B$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">'Cell 1 and Cell 2 Times'!$B$2:$B$601</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'All (NP-&gt;2500)'!$A$2:$A$601</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'All (NP-&gt;2500)'!$G$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'All (NP-&gt;2500)'!$G$2:$G$601</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'All (NP-&gt;2500)'!$H$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'All (NP-&gt;2500)'!$H$2:$H$601</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'All (NP-&gt;2500)'!$I$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'All (NP-&gt;2500)'!$I$2:$I$601</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'All (NP-&gt;2500)'!$J$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'All (NP-&gt;2500)'!$J$2:$J$601</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">'All (NP excluded)'!$D$1</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">'Cell 1 and Cell 2 Times'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">'Cell 1 and Cell 2 Times'!$B$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">'Cell 1 and Cell 2 Times'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">'Cell 1 and Cell 2 Times'!$C$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">'Cell 1 and Cell 2 Times'!$C$2:$C$601</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">'Cell 1 and Cell 2 Times'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">'Cell 1 and Cell 2 Times'!$B$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">'Cell 1 and Cell 2 Times'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">'Cell 1 and Cell 2 Times'!$C$1</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">'Cell 1 and Cell 2 Times'!$C$2:$C$601</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">'All (NP excluded)'!$D$2:$D$598</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">'Yes Time'!$A$2:$A$598</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">'Yes Time'!$B$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">'Yes Time'!$B$2:$B$598</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">'LF Time'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">'LF Time'!$B$1</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">'LF Time'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">'All (NP-&gt;0)'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">'All (NP-&gt;0)'!$B$1</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">'All (NP-&gt;0)'!$B$2:$B$601</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">'All (NP-&gt;0)'!$C$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">'All (NP excluded)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">'All (NP-&gt;0)'!$C$2:$C$601</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">'All (NP-&gt;0)'!$D$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">'All (NP-&gt;0)'!$D$2:$D$601</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">'All (NP-&gt;0)'!$E$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">'All (NP-&gt;0)'!$E$2:$E$601</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">'All (NP-&gt;2500)'!$A$2:$A$601</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">'All (NP-&gt;2500)'!$G$1</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">'All (NP-&gt;2500)'!$G$2:$G$601</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">'All (NP-&gt;2500)'!$H$1</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">'All (NP-&gt;2500)'!$H$2:$H$601</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">'All (NP excluded)'!$E$2:$E$598</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">'All (NP-&gt;2500)'!$I$1</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">'All (NP-&gt;2500)'!$I$2:$I$601</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">'All (NP-&gt;2500)'!$J$1</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">'All (NP-&gt;2500)'!$J$2:$J$601</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'Cell 1 Time'!$A$2:$A$601</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -129,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4889" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5502" uniqueCount="21">
   <si>
     <t>Uncoupled</t>
   </si>
@@ -186,6 +152,12 @@
   </si>
   <si>
     <t>Mean Cell 2</t>
+  </si>
+  <si>
+    <t>Mean Yes</t>
+  </si>
+  <si>
+    <t>Mean LF</t>
   </si>
 </sst>
 </file>
@@ -251,37 +223,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -539,10 +481,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -580,7 +522,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{23EEA3B8-CE06-B141-B315-5F333C82BA1C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Cell 1 Polarize Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -610,10 +552,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.36</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -651,7 +593,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{53A43A36-F50F-4049-B455-F080D99DD6F4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.35</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>Cell 2 Polarize Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -680,18 +622,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.57</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.55</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.59</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -729,7 +671,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{63F29078-E28C-A746-A9D5-BADF6692FB07}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.56</cx:f>
+              <cx:f>_xlchart.v1.16</cx:f>
               <cx:v>Cell 1 Polarize Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -741,7 +683,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E647793A-5C6C-0F4E-AFE8-D6D90D29814D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.58</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>Cell 2 Polarize Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -799,10 +741,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.60</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.62</cx:f>
+        <cx:f>_xlchart.v1.22</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -840,7 +782,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2D3AFE0D-AFB2-0C42-A33E-1EC874BB693B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:f>_xlchart.v1.21</cx:f>
               <cx:v>Yes Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -869,10 +811,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.63</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.65</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -910,7 +852,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{EC0F22B3-FE11-7F42-BEF5-63B801F456EA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.64</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>LF Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -940,34 +882,153 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.66</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.68</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.66</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.70</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Yes and LF Polarize Times</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Yes and LF Polarize Times</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{220BBF89-68E7-CB45-8E65-55F2D477C7B9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.27</cx:f>
+              <cx:v>Yes Time</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{CA9BAA6F-0C21-FC4C-A6DD-1AD06E0D7C8A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:v>LF Time</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Number of Timesteps</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Number of Timesteps</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.66</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.72</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.66</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.74</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1005,7 +1066,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B028951E-6555-4940-B883-28842B998F3E}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.67</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>Cell 1 Polarize Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1017,7 +1078,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E7898B75-5442-8E4E-BE1B-FD35DB91CF20}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:f>_xlchart.v1.34</cx:f>
               <cx:v>Cell 2 Polarize Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1029,7 +1090,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{464CBC5A-007E-E840-A9DE-72035337957D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>Yes Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1041,7 +1102,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0EBE5B4B-07C6-B745-B8B1-0AD1DDF60E80}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>LF Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1094,39 +1155,39 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx9.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.75</cx:f>
+        <cx:f>_xlchart.v1.40</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.77</cx:f>
+        <cx:f>_xlchart.v1.42</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.75</cx:f>
+        <cx:f>_xlchart.v1.40</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.79</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.75</cx:f>
+        <cx:f>_xlchart.v1.40</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.81</cx:f>
+        <cx:f>_xlchart.v1.46</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.75</cx:f>
+        <cx:f>_xlchart.v1.40</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.83</cx:f>
+        <cx:f>_xlchart.v1.48</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1164,7 +1225,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{89E7F496-E9E0-E440-ABD5-B8AD505CF767}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.76</cx:f>
+              <cx:f>_xlchart.v1.41</cx:f>
               <cx:v>Cell 1 Polarize Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1176,7 +1237,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{28DCDB95-2DD8-B144-9AC5-91B287D35B2F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.78</cx:f>
+              <cx:f>_xlchart.v1.43</cx:f>
               <cx:v>Cell 2 Polarize Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1188,7 +1249,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{1479C9E9-A9BF-AE4A-B178-AD1AEBF026BE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.80</cx:f>
+              <cx:f>_xlchart.v1.45</cx:f>
               <cx:v>Yes Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1200,7 +1261,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5F232478-C3C6-674C-8353-96B6A48F82E5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.82</cx:f>
+              <cx:f>_xlchart.v1.47</cx:f>
               <cx:v>LF Time</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1534,6 +1595,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5693,6 +5794,521 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5742,7 +6358,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7150100" y="1085850"/>
+              <a:off x="7150100" y="1289050"/>
               <a:ext cx="9867900" cy="6165850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -5991,8 +6607,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4578350" y="679450"/>
-              <a:ext cx="7575550" cy="5607050"/>
+              <a:off x="6051550" y="679450"/>
+              <a:ext cx="7575550" cy="5403850"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -6195,6 +6811,89 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAB9431-92C3-2996-203F-952BA1C1295F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4159250" y="1352550"/>
+              <a:ext cx="7575550" cy="5403850"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -6274,7 +6973,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6656,8 +7355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEC8F36-F959-8A45-A35D-BE5551C899ED}">
   <dimension ref="A1:K601"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="H163" sqref="H163"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16973,7 +17672,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E601 H145:H151">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21884,7 +22583,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B601">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26804,8 +27503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E1BD3D-A8EE-BC4B-A04B-02BAB12DA529}">
   <dimension ref="A1:I601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33559,13 +34258,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B601">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C601">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="B1:C601">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33578,8 +34272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E071AE-F68C-814F-B680-AEE5CEF610C1}">
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38484,7 +39178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53577153-7DD1-FD48-AED2-B2EAD2AB362C}">
   <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
@@ -43387,6 +44081,6762 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8ED77B-F609-4444-AA60-69D21A1A0CC0}">
+  <dimension ref="A1:I601"/>
+  <sheetViews>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="K146" sqref="K146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2212</v>
+      </c>
+      <c r="C5">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>545</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>153</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>156</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>328</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>210</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>153</v>
+      </c>
+      <c r="C24">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>248</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>390</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>254</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>150</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>2089</v>
+      </c>
+      <c r="C51">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>201</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>467</v>
+      </c>
+      <c r="C58">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>196</v>
+      </c>
+      <c r="C62">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>206</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>157</v>
+      </c>
+      <c r="C66">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>111</v>
+      </c>
+      <c r="C69">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>1257</v>
+      </c>
+      <c r="C70">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>172</v>
+      </c>
+      <c r="C73">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>735</v>
+      </c>
+      <c r="C77">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>236</v>
+      </c>
+      <c r="C85">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>842</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>123</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>265</v>
+      </c>
+      <c r="C102">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>117</v>
+      </c>
+      <c r="C103">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>154</v>
+      </c>
+      <c r="C104">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>324</v>
+      </c>
+      <c r="C105">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>156</v>
+      </c>
+      <c r="C106">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>1335</v>
+      </c>
+      <c r="C112">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113">
+        <v>99</v>
+      </c>
+      <c r="C113">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114">
+        <v>139</v>
+      </c>
+      <c r="C114">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>170</v>
+      </c>
+      <c r="C115">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>166</v>
+      </c>
+      <c r="C116">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117">
+        <v>186</v>
+      </c>
+      <c r="C117">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118">
+        <v>97</v>
+      </c>
+      <c r="C118">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120">
+        <v>397</v>
+      </c>
+      <c r="C120">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122">
+        <v>204</v>
+      </c>
+      <c r="C122">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>722</v>
+      </c>
+      <c r="C123">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>130</v>
+      </c>
+      <c r="C125">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>113</v>
+      </c>
+      <c r="C126">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>161</v>
+      </c>
+      <c r="C127">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>157</v>
+      </c>
+      <c r="C129">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>106</v>
+      </c>
+      <c r="C132">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>409</v>
+      </c>
+      <c r="C134">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>153</v>
+      </c>
+      <c r="C135">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>959</v>
+      </c>
+      <c r="C136">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>325</v>
+      </c>
+      <c r="C140">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>87</v>
+      </c>
+      <c r="C141">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>755</v>
+      </c>
+      <c r="C142">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1</v>
+      </c>
+      <c r="B144">
+        <v>353</v>
+      </c>
+      <c r="C144">
+        <v>106</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>109</v>
+      </c>
+      <c r="C145">
+        <v>109</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>100</v>
+      </c>
+      <c r="G145">
+        <f>COUNTIFS(A:A,"Uncoupled",B:B,"&gt;0",C:C,"&gt;0")</f>
+        <v>11</v>
+      </c>
+      <c r="H145">
+        <f>(SUMIFS(B:B,A:A,"Uncoupled",B:B,"&gt;0",C:C,"&gt;0"))/G145</f>
+        <v>707.72727272727275</v>
+      </c>
+      <c r="I145">
+        <f>(SUMIFS(C:C,A:A,"Uncoupled",B:B,"&gt;0",C:C,"&gt;0"))/G145</f>
+        <v>521.4545454545455</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>432</v>
+      </c>
+      <c r="C146">
+        <v>92</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>100</v>
+      </c>
+      <c r="G146">
+        <f>COUNTIFS(A:A,"Rac up c1, rac down c2",B:B,"&gt;0",C:C,"&gt;0")</f>
+        <v>62</v>
+      </c>
+      <c r="H146">
+        <f>(SUMIFS(B:B,A:A,"Rac up c1, rac down c2",B:B,"&gt;0",C:C,"&gt;0"))/G146</f>
+        <v>472.88709677419354</v>
+      </c>
+      <c r="I146">
+        <f>(SUMIFS(C:C,A:A,"Rac up c1, rac down c2",B:B,"&gt;0",C:C,"&gt;0"))/G146</f>
+        <v>231.53225806451613</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>131</v>
+      </c>
+      <c r="C148">
+        <v>131</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <v>100</v>
+      </c>
+      <c r="G148">
+        <f>COUNTIFS(A:A,"Rho down c1, rac down c2",B:B,"&gt;0",C:C,"&gt;0")</f>
+        <v>55</v>
+      </c>
+      <c r="H148">
+        <f>(SUMIFS(B:B,A:A,"Rho down c1, rac down c2",B:B,"&gt;0",C:C,"&gt;0"))/G148</f>
+        <v>782.32727272727277</v>
+      </c>
+      <c r="I148">
+        <f>(SUMIFS(C:C,A:A,"Rho down c1, rac down c2",B:B,"&gt;0",C:C,"&gt;0"))/G148</f>
+        <v>579.83636363636367</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>769</v>
+      </c>
+      <c r="C149">
+        <v>158</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <v>100</v>
+      </c>
+      <c r="G149">
+        <f>COUNTIFS(A:A,"Rho up c1, rac up c2",B:B,"&gt;0",C:C,"&gt;0")</f>
+        <v>59</v>
+      </c>
+      <c r="H149">
+        <f>(SUMIFS(B:B,A:A,"Rho up c1, rac up c2",B:B,"&gt;0",C:C,"&gt;0"))/G149</f>
+        <v>374.71186440677968</v>
+      </c>
+      <c r="I149">
+        <f>(SUMIFS(C:C,A:A,"Rho up c1, rac up c2",B:B,"&gt;0",C:C,"&gt;0"))/G149</f>
+        <v>212.66101694915255</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>107</v>
+      </c>
+      <c r="C150">
+        <v>107</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <v>100</v>
+      </c>
+      <c r="G150">
+        <f>COUNTIFS(A:A,"Rho up c1, rho down c2",B:B,"&gt;0",C:C,"&gt;0")</f>
+        <v>74</v>
+      </c>
+      <c r="H150">
+        <f>(SUMIFS(B:B,A:A,"Rho up c1, rho down c2",B:B,"&gt;0",C:C,"&gt;0"))/G150</f>
+        <v>708.89189189189187</v>
+      </c>
+      <c r="I150">
+        <f>(SUMIFS(C:C,A:A,"Rho up c1, rho down c2",B:B,"&gt;0",C:C,"&gt;0"))/G150</f>
+        <v>521.44594594594594</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>95</v>
+      </c>
+      <c r="C151">
+        <v>95</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>100</v>
+      </c>
+      <c r="G151">
+        <f>COUNTIFS(A:A,"Branched&lt;-&gt;bundled",B:B,"&gt;0",C:C,"&gt;0")</f>
+        <v>47</v>
+      </c>
+      <c r="H151">
+        <f>(SUMIFS(B:B,A:A,"Branched&lt;-&gt;bundled",B:B,"&gt;0",C:C,"&gt;0"))/G151</f>
+        <v>440.65957446808511</v>
+      </c>
+      <c r="I151">
+        <f>(SUMIFS(C:C,A:A,"Branched&lt;-&gt;bundled",B:B,"&gt;0",C:C,"&gt;0"))/G151</f>
+        <v>235.14893617021278</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>149</v>
+      </c>
+      <c r="C152">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1</v>
+      </c>
+      <c r="B154">
+        <v>1331</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159">
+        <v>134</v>
+      </c>
+      <c r="C159">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1</v>
+      </c>
+      <c r="B160">
+        <v>726</v>
+      </c>
+      <c r="C160">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>183</v>
+      </c>
+      <c r="C162">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163">
+        <v>230</v>
+      </c>
+      <c r="C163">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>399</v>
+      </c>
+      <c r="C164">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>0</v>
+      </c>
+      <c r="C165">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>2134</v>
+      </c>
+      <c r="C168">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>0</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171">
+        <v>714</v>
+      </c>
+      <c r="C171">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>119</v>
+      </c>
+      <c r="C172">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>0</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>0</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>1</v>
+      </c>
+      <c r="B176">
+        <v>707</v>
+      </c>
+      <c r="C176">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>1</v>
+      </c>
+      <c r="B177">
+        <v>1578</v>
+      </c>
+      <c r="C177">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>1</v>
+      </c>
+      <c r="B178">
+        <v>1100</v>
+      </c>
+      <c r="C178">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>1</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180">
+        <v>193</v>
+      </c>
+      <c r="C180">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>1</v>
+      </c>
+      <c r="B181">
+        <v>0</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>1</v>
+      </c>
+      <c r="B182">
+        <v>1412</v>
+      </c>
+      <c r="C182">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>1</v>
+      </c>
+      <c r="B183">
+        <v>1792</v>
+      </c>
+      <c r="C183">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>1</v>
+      </c>
+      <c r="B184">
+        <v>108</v>
+      </c>
+      <c r="C184">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>1</v>
+      </c>
+      <c r="B185">
+        <v>84</v>
+      </c>
+      <c r="C185">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>149</v>
+      </c>
+      <c r="C187">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1</v>
+      </c>
+      <c r="B188">
+        <v>1623</v>
+      </c>
+      <c r="C188">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189">
+        <v>163</v>
+      </c>
+      <c r="C189">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1</v>
+      </c>
+      <c r="B190">
+        <v>109</v>
+      </c>
+      <c r="C190">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>1</v>
+      </c>
+      <c r="B191">
+        <v>0</v>
+      </c>
+      <c r="C191">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>1</v>
+      </c>
+      <c r="B192">
+        <v>232</v>
+      </c>
+      <c r="C192">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>1</v>
+      </c>
+      <c r="B193">
+        <v>135</v>
+      </c>
+      <c r="C193">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>1</v>
+      </c>
+      <c r="B194">
+        <v>991</v>
+      </c>
+      <c r="C194">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>1</v>
+      </c>
+      <c r="B195">
+        <v>1099</v>
+      </c>
+      <c r="C195">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>1</v>
+      </c>
+      <c r="B196">
+        <v>134</v>
+      </c>
+      <c r="C196">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>1</v>
+      </c>
+      <c r="B198">
+        <v>0</v>
+      </c>
+      <c r="C198">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>1</v>
+      </c>
+      <c r="B199">
+        <v>2226</v>
+      </c>
+      <c r="C199">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>1</v>
+      </c>
+      <c r="B200">
+        <v>707</v>
+      </c>
+      <c r="C200">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>1</v>
+      </c>
+      <c r="B201">
+        <v>0</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>2</v>
+      </c>
+      <c r="B202">
+        <v>197</v>
+      </c>
+      <c r="C202">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>2</v>
+      </c>
+      <c r="B203">
+        <v>182</v>
+      </c>
+      <c r="C203">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>2</v>
+      </c>
+      <c r="B204">
+        <v>1103</v>
+      </c>
+      <c r="C204">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>2</v>
+      </c>
+      <c r="B205">
+        <v>121</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>2</v>
+      </c>
+      <c r="B206">
+        <v>229</v>
+      </c>
+      <c r="C206">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>2</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>2</v>
+      </c>
+      <c r="B208">
+        <v>826</v>
+      </c>
+      <c r="C208">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>2</v>
+      </c>
+      <c r="B209">
+        <v>1186</v>
+      </c>
+      <c r="C209">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>2</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>2</v>
+      </c>
+      <c r="B211">
+        <v>0</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>2</v>
+      </c>
+      <c r="B212">
+        <v>125</v>
+      </c>
+      <c r="C212">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>2</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+      <c r="C213">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>2</v>
+      </c>
+      <c r="B214">
+        <v>745</v>
+      </c>
+      <c r="C214">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>2</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>2</v>
+      </c>
+      <c r="B216">
+        <v>298</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>2</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+      <c r="C217">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>2</v>
+      </c>
+      <c r="B218">
+        <v>725</v>
+      </c>
+      <c r="C218">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>2</v>
+      </c>
+      <c r="B219">
+        <v>286</v>
+      </c>
+      <c r="C219">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>2</v>
+      </c>
+      <c r="B220">
+        <v>1529</v>
+      </c>
+      <c r="C220">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>2</v>
+      </c>
+      <c r="B221">
+        <v>123</v>
+      </c>
+      <c r="C221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>2</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>2</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>2</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>2</v>
+      </c>
+      <c r="B226">
+        <v>674</v>
+      </c>
+      <c r="C226">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>2</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228">
+        <v>106</v>
+      </c>
+      <c r="C228">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>2</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>2</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>2</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>2</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>2</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>2</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>2</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>2</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>2</v>
+      </c>
+      <c r="B237">
+        <v>2339</v>
+      </c>
+      <c r="C237">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>2</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>2</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>2</v>
+      </c>
+      <c r="B240">
+        <v>110</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>2</v>
+      </c>
+      <c r="B241">
+        <v>2059</v>
+      </c>
+      <c r="C241">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>2</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>2</v>
+      </c>
+      <c r="B243">
+        <v>1022</v>
+      </c>
+      <c r="C243">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>2</v>
+      </c>
+      <c r="B244">
+        <v>1455</v>
+      </c>
+      <c r="C244">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>2</v>
+      </c>
+      <c r="B245">
+        <v>196</v>
+      </c>
+      <c r="C245">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>2</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>2</v>
+      </c>
+      <c r="B247">
+        <v>0</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>2</v>
+      </c>
+      <c r="B248">
+        <v>368</v>
+      </c>
+      <c r="C248">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>2</v>
+      </c>
+      <c r="B249">
+        <v>0</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250">
+        <v>206</v>
+      </c>
+      <c r="C250">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>2</v>
+      </c>
+      <c r="B251">
+        <v>106</v>
+      </c>
+      <c r="C251">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252">
+        <v>2345</v>
+      </c>
+      <c r="C252">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253">
+        <v>102</v>
+      </c>
+      <c r="C253">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>2</v>
+      </c>
+      <c r="B254">
+        <v>0</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>2</v>
+      </c>
+      <c r="B255">
+        <v>1296</v>
+      </c>
+      <c r="C255">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256">
+        <v>252</v>
+      </c>
+      <c r="C256">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257">
+        <v>0</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>2</v>
+      </c>
+      <c r="B258">
+        <v>134</v>
+      </c>
+      <c r="C258">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>2</v>
+      </c>
+      <c r="B259">
+        <v>0</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>2</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>2</v>
+      </c>
+      <c r="B261">
+        <v>0</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>2</v>
+      </c>
+      <c r="B262">
+        <v>1530</v>
+      </c>
+      <c r="C262">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>2</v>
+      </c>
+      <c r="B263">
+        <v>78</v>
+      </c>
+      <c r="C263">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>2</v>
+      </c>
+      <c r="B264">
+        <v>172</v>
+      </c>
+      <c r="C264">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>2</v>
+      </c>
+      <c r="B265">
+        <v>1902</v>
+      </c>
+      <c r="C265">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>2</v>
+      </c>
+      <c r="B266">
+        <v>0</v>
+      </c>
+      <c r="C266">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>2</v>
+      </c>
+      <c r="B267">
+        <v>257</v>
+      </c>
+      <c r="C267">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>2</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>2</v>
+      </c>
+      <c r="B269">
+        <v>1193</v>
+      </c>
+      <c r="C269">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>2</v>
+      </c>
+      <c r="B270">
+        <v>0</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>2</v>
+      </c>
+      <c r="B271">
+        <v>2367</v>
+      </c>
+      <c r="C271">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>2</v>
+      </c>
+      <c r="B272">
+        <v>0</v>
+      </c>
+      <c r="C272">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273">
+        <v>431</v>
+      </c>
+      <c r="C273">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>2</v>
+      </c>
+      <c r="B274">
+        <v>534</v>
+      </c>
+      <c r="C274">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>2</v>
+      </c>
+      <c r="B275">
+        <v>438</v>
+      </c>
+      <c r="C275">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>2</v>
+      </c>
+      <c r="B276">
+        <v>1353</v>
+      </c>
+      <c r="C276">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>2</v>
+      </c>
+      <c r="B277">
+        <v>199</v>
+      </c>
+      <c r="C277">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>2</v>
+      </c>
+      <c r="B278">
+        <v>0</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>2</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>2</v>
+      </c>
+      <c r="B280">
+        <v>1017</v>
+      </c>
+      <c r="C280">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>2</v>
+      </c>
+      <c r="B281">
+        <v>1630</v>
+      </c>
+      <c r="C281">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>2</v>
+      </c>
+      <c r="B282">
+        <v>555</v>
+      </c>
+      <c r="C282">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>2</v>
+      </c>
+      <c r="B283">
+        <v>708</v>
+      </c>
+      <c r="C283">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>2</v>
+      </c>
+      <c r="B284">
+        <v>0</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>2</v>
+      </c>
+      <c r="B285">
+        <v>181</v>
+      </c>
+      <c r="C285">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>2</v>
+      </c>
+      <c r="B286">
+        <v>159</v>
+      </c>
+      <c r="C286">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>2</v>
+      </c>
+      <c r="B287">
+        <v>0</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>2</v>
+      </c>
+      <c r="B288">
+        <v>286</v>
+      </c>
+      <c r="C288">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>2</v>
+      </c>
+      <c r="B289">
+        <v>0</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>2</v>
+      </c>
+      <c r="B290">
+        <v>296</v>
+      </c>
+      <c r="C290">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>2</v>
+      </c>
+      <c r="B291">
+        <v>1607</v>
+      </c>
+      <c r="C291">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>2</v>
+      </c>
+      <c r="B292">
+        <v>1300</v>
+      </c>
+      <c r="C292">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>2</v>
+      </c>
+      <c r="B293">
+        <v>2255</v>
+      </c>
+      <c r="C293">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>2</v>
+      </c>
+      <c r="B294">
+        <v>280</v>
+      </c>
+      <c r="C294">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>2</v>
+      </c>
+      <c r="B295">
+        <v>148</v>
+      </c>
+      <c r="C295">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>2</v>
+      </c>
+      <c r="B296">
+        <v>112</v>
+      </c>
+      <c r="C296">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>2</v>
+      </c>
+      <c r="B297">
+        <v>1973</v>
+      </c>
+      <c r="C297">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>2</v>
+      </c>
+      <c r="B298">
+        <v>178</v>
+      </c>
+      <c r="C298">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>2</v>
+      </c>
+      <c r="B299">
+        <v>0</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>2</v>
+      </c>
+      <c r="B300">
+        <v>96</v>
+      </c>
+      <c r="C300">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>2</v>
+      </c>
+      <c r="B301">
+        <v>0</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>3</v>
+      </c>
+      <c r="B302">
+        <v>0</v>
+      </c>
+      <c r="C302">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>3</v>
+      </c>
+      <c r="B303">
+        <v>2256</v>
+      </c>
+      <c r="C303">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>3</v>
+      </c>
+      <c r="B304">
+        <v>112</v>
+      </c>
+      <c r="C304">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>3</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+      <c r="C305">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>3</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>3</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>3</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>3</v>
+      </c>
+      <c r="B309">
+        <v>303</v>
+      </c>
+      <c r="C309">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>3</v>
+      </c>
+      <c r="B310">
+        <v>253</v>
+      </c>
+      <c r="C310">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>3</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>3</v>
+      </c>
+      <c r="B312">
+        <v>162</v>
+      </c>
+      <c r="C312">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>3</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+      <c r="C313">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>3</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>3</v>
+      </c>
+      <c r="B315">
+        <v>266</v>
+      </c>
+      <c r="C315">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>3</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>3</v>
+      </c>
+      <c r="B317">
+        <v>92</v>
+      </c>
+      <c r="C317">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>3</v>
+      </c>
+      <c r="B318">
+        <v>84</v>
+      </c>
+      <c r="C318">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>3</v>
+      </c>
+      <c r="B319">
+        <v>128</v>
+      </c>
+      <c r="C319">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>3</v>
+      </c>
+      <c r="B320">
+        <v>222</v>
+      </c>
+      <c r="C320">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>3</v>
+      </c>
+      <c r="B321">
+        <v>141</v>
+      </c>
+      <c r="C321">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>3</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>3</v>
+      </c>
+      <c r="B323">
+        <v>210</v>
+      </c>
+      <c r="C323">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>3</v>
+      </c>
+      <c r="B324">
+        <v>1320</v>
+      </c>
+      <c r="C324">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>3</v>
+      </c>
+      <c r="B325">
+        <v>134</v>
+      </c>
+      <c r="C325">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>3</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>3</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>3</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+      <c r="C328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>3</v>
+      </c>
+      <c r="B329">
+        <v>79</v>
+      </c>
+      <c r="C329">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>3</v>
+      </c>
+      <c r="B330">
+        <v>99</v>
+      </c>
+      <c r="C330">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>3</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+      <c r="C331">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>3</v>
+      </c>
+      <c r="B332">
+        <v>156</v>
+      </c>
+      <c r="C332">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>3</v>
+      </c>
+      <c r="B333">
+        <v>107</v>
+      </c>
+      <c r="C333">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>3</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>3</v>
+      </c>
+      <c r="B335">
+        <v>1524</v>
+      </c>
+      <c r="C335">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>3</v>
+      </c>
+      <c r="B336">
+        <v>330</v>
+      </c>
+      <c r="C336">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>3</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+      <c r="C337">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>3</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+      <c r="C338">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>3</v>
+      </c>
+      <c r="B339">
+        <v>91</v>
+      </c>
+      <c r="C339">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>3</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>3</v>
+      </c>
+      <c r="B341">
+        <v>504</v>
+      </c>
+      <c r="C341">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>3</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+      <c r="C342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>3</v>
+      </c>
+      <c r="B343">
+        <v>214</v>
+      </c>
+      <c r="C343">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>3</v>
+      </c>
+      <c r="B344">
+        <v>111</v>
+      </c>
+      <c r="C344">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>3</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+      <c r="C345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>3</v>
+      </c>
+      <c r="B346">
+        <v>76</v>
+      </c>
+      <c r="C346">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>3</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+      <c r="C347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>3</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>3</v>
+      </c>
+      <c r="B349">
+        <v>87</v>
+      </c>
+      <c r="C349">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>3</v>
+      </c>
+      <c r="B350">
+        <v>137</v>
+      </c>
+      <c r="C350">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>3</v>
+      </c>
+      <c r="B351">
+        <v>163</v>
+      </c>
+      <c r="C351">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>3</v>
+      </c>
+      <c r="B352">
+        <v>85</v>
+      </c>
+      <c r="C352">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>3</v>
+      </c>
+      <c r="B353">
+        <v>1981</v>
+      </c>
+      <c r="C353">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>3</v>
+      </c>
+      <c r="B354">
+        <v>1220</v>
+      </c>
+      <c r="C354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>3</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+      <c r="C355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>3</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+      <c r="C356">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>3</v>
+      </c>
+      <c r="B357">
+        <v>331</v>
+      </c>
+      <c r="C357">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>3</v>
+      </c>
+      <c r="B358">
+        <v>85</v>
+      </c>
+      <c r="C358">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>3</v>
+      </c>
+      <c r="B359">
+        <v>188</v>
+      </c>
+      <c r="C359">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>3</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>3</v>
+      </c>
+      <c r="B361">
+        <v>113</v>
+      </c>
+      <c r="C361">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>3</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>3</v>
+      </c>
+      <c r="B364">
+        <v>859</v>
+      </c>
+      <c r="C364">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>3</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>3</v>
+      </c>
+      <c r="B366">
+        <v>2117</v>
+      </c>
+      <c r="C366">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>3</v>
+      </c>
+      <c r="B367">
+        <v>113</v>
+      </c>
+      <c r="C367">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>3</v>
+      </c>
+      <c r="B368">
+        <v>234</v>
+      </c>
+      <c r="C368">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>3</v>
+      </c>
+      <c r="B369">
+        <v>1364</v>
+      </c>
+      <c r="C369">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>3</v>
+      </c>
+      <c r="B370">
+        <v>90</v>
+      </c>
+      <c r="C370">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>3</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>3</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>3</v>
+      </c>
+      <c r="B373">
+        <v>141</v>
+      </c>
+      <c r="C373">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>3</v>
+      </c>
+      <c r="B374">
+        <v>178</v>
+      </c>
+      <c r="C374">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>3</v>
+      </c>
+      <c r="B375">
+        <v>171</v>
+      </c>
+      <c r="C375">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>3</v>
+      </c>
+      <c r="B376">
+        <v>93</v>
+      </c>
+      <c r="C376">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>3</v>
+      </c>
+      <c r="B377">
+        <v>106</v>
+      </c>
+      <c r="C377">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>3</v>
+      </c>
+      <c r="B378">
+        <v>204</v>
+      </c>
+      <c r="C378">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>3</v>
+      </c>
+      <c r="B379">
+        <v>176</v>
+      </c>
+      <c r="C379">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>3</v>
+      </c>
+      <c r="B380">
+        <v>208</v>
+      </c>
+      <c r="C380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>3</v>
+      </c>
+      <c r="B381">
+        <v>129</v>
+      </c>
+      <c r="C381">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>3</v>
+      </c>
+      <c r="B382">
+        <v>109</v>
+      </c>
+      <c r="C382">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>3</v>
+      </c>
+      <c r="B383">
+        <v>206</v>
+      </c>
+      <c r="C383">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>3</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>3</v>
+      </c>
+      <c r="B385">
+        <v>112</v>
+      </c>
+      <c r="C385">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>3</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>3</v>
+      </c>
+      <c r="B387">
+        <v>293</v>
+      </c>
+      <c r="C387">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>3</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>3</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>3</v>
+      </c>
+      <c r="B391">
+        <v>221</v>
+      </c>
+      <c r="C391">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>3</v>
+      </c>
+      <c r="B392">
+        <v>77</v>
+      </c>
+      <c r="C392">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>3</v>
+      </c>
+      <c r="B393">
+        <v>210</v>
+      </c>
+      <c r="C393">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>3</v>
+      </c>
+      <c r="B394">
+        <v>153</v>
+      </c>
+      <c r="C394">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>3</v>
+      </c>
+      <c r="B395">
+        <v>1458</v>
+      </c>
+      <c r="C395">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>3</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+      <c r="C396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>3</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+      <c r="C397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>3</v>
+      </c>
+      <c r="B398">
+        <v>139</v>
+      </c>
+      <c r="C398">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>3</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+      <c r="C399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>3</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+      <c r="C400">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>3</v>
+      </c>
+      <c r="B401">
+        <v>1011</v>
+      </c>
+      <c r="C401">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B402">
+        <v>155</v>
+      </c>
+      <c r="C402">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+      <c r="C403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B404">
+        <v>619</v>
+      </c>
+      <c r="C404">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B405">
+        <v>136</v>
+      </c>
+      <c r="C405">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B406">
+        <v>481</v>
+      </c>
+      <c r="C406">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+      <c r="C407">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B410">
+        <v>1528</v>
+      </c>
+      <c r="C410">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B411">
+        <v>2155</v>
+      </c>
+      <c r="C411">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+      <c r="C412">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B413">
+        <v>166</v>
+      </c>
+      <c r="C413">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B414">
+        <v>868</v>
+      </c>
+      <c r="C414">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>4</v>
+      </c>
+      <c r="B415">
+        <v>955</v>
+      </c>
+      <c r="C415">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>4</v>
+      </c>
+      <c r="B416">
+        <v>202</v>
+      </c>
+      <c r="C416">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+      <c r="C417">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>4</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+      <c r="C418">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+      <c r="C419">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B420">
+        <v>1339</v>
+      </c>
+      <c r="C420">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>4</v>
+      </c>
+      <c r="B421">
+        <v>791</v>
+      </c>
+      <c r="C421">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B422">
+        <v>1752</v>
+      </c>
+      <c r="C422">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>4</v>
+      </c>
+      <c r="B423">
+        <v>1472</v>
+      </c>
+      <c r="C423">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>4</v>
+      </c>
+      <c r="B424">
+        <v>871</v>
+      </c>
+      <c r="C424">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>4</v>
+      </c>
+      <c r="B425">
+        <v>1611</v>
+      </c>
+      <c r="C425">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>4</v>
+      </c>
+      <c r="B426">
+        <v>174</v>
+      </c>
+      <c r="C426">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>4</v>
+      </c>
+      <c r="B427">
+        <v>485</v>
+      </c>
+      <c r="C427">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>4</v>
+      </c>
+      <c r="B428">
+        <v>106</v>
+      </c>
+      <c r="C428">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>4</v>
+      </c>
+      <c r="B429">
+        <v>135</v>
+      </c>
+      <c r="C429">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B430">
+        <v>264</v>
+      </c>
+      <c r="C430">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>4</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+      <c r="C431">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>4</v>
+      </c>
+      <c r="B432">
+        <v>126</v>
+      </c>
+      <c r="C432">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>4</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+      <c r="C433">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>4</v>
+      </c>
+      <c r="B434">
+        <v>275</v>
+      </c>
+      <c r="C434">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>4</v>
+      </c>
+      <c r="B435">
+        <v>235</v>
+      </c>
+      <c r="C435">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>4</v>
+      </c>
+      <c r="B436">
+        <v>412</v>
+      </c>
+      <c r="C436">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>4</v>
+      </c>
+      <c r="B437">
+        <v>113</v>
+      </c>
+      <c r="C437">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>4</v>
+      </c>
+      <c r="B438">
+        <v>81</v>
+      </c>
+      <c r="C438">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>4</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+      <c r="C439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>4</v>
+      </c>
+      <c r="B440">
+        <v>408</v>
+      </c>
+      <c r="C440">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>4</v>
+      </c>
+      <c r="B441">
+        <v>394</v>
+      </c>
+      <c r="C441">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>4</v>
+      </c>
+      <c r="B442">
+        <v>123</v>
+      </c>
+      <c r="C442">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>4</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+      <c r="C443">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B444">
+        <v>2055</v>
+      </c>
+      <c r="C444">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B445">
+        <v>1780</v>
+      </c>
+      <c r="C445">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B446">
+        <v>1309</v>
+      </c>
+      <c r="C446">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>4</v>
+      </c>
+      <c r="B447">
+        <v>178</v>
+      </c>
+      <c r="C447">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>4</v>
+      </c>
+      <c r="B448">
+        <v>99</v>
+      </c>
+      <c r="C448">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>4</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+      <c r="C449">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>4</v>
+      </c>
+      <c r="B450">
+        <v>250</v>
+      </c>
+      <c r="C450">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>4</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+      <c r="C451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>4</v>
+      </c>
+      <c r="B452">
+        <v>2252</v>
+      </c>
+      <c r="C452">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B453">
+        <v>1098</v>
+      </c>
+      <c r="C453">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>4</v>
+      </c>
+      <c r="B454">
+        <v>718</v>
+      </c>
+      <c r="C454">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>4</v>
+      </c>
+      <c r="B455">
+        <v>522</v>
+      </c>
+      <c r="C455">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>4</v>
+      </c>
+      <c r="B456">
+        <v>166</v>
+      </c>
+      <c r="C456">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>4</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B458">
+        <v>1330</v>
+      </c>
+      <c r="C458">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>4</v>
+      </c>
+      <c r="B459">
+        <v>869</v>
+      </c>
+      <c r="C459">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>4</v>
+      </c>
+      <c r="B460">
+        <v>232</v>
+      </c>
+      <c r="C460">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B461">
+        <v>188</v>
+      </c>
+      <c r="C461">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B462">
+        <v>142</v>
+      </c>
+      <c r="C462">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>4</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+      <c r="C463">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+      <c r="C464">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B465">
+        <v>1120</v>
+      </c>
+      <c r="C465">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B466">
+        <v>139</v>
+      </c>
+      <c r="C466">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B467">
+        <v>224</v>
+      </c>
+      <c r="C467">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B468">
+        <v>2211</v>
+      </c>
+      <c r="C468">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B469">
+        <v>149</v>
+      </c>
+      <c r="C469">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B470">
+        <v>251</v>
+      </c>
+      <c r="C470">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>4</v>
+      </c>
+      <c r="B471">
+        <v>86</v>
+      </c>
+      <c r="C471">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>4</v>
+      </c>
+      <c r="B472">
+        <v>361</v>
+      </c>
+      <c r="C472">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>4</v>
+      </c>
+      <c r="B473">
+        <v>569</v>
+      </c>
+      <c r="C473">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>4</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+      <c r="C474">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+      <c r="C475">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>4</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+      <c r="C476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>4</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B478">
+        <v>113</v>
+      </c>
+      <c r="C478">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>4</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+      <c r="C479">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B480">
+        <v>130</v>
+      </c>
+      <c r="C480">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B481">
+        <v>111</v>
+      </c>
+      <c r="C481">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>4</v>
+      </c>
+      <c r="B482">
+        <v>855</v>
+      </c>
+      <c r="C482">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>4</v>
+      </c>
+      <c r="B483">
+        <v>959</v>
+      </c>
+      <c r="C483">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>4</v>
+      </c>
+      <c r="B484">
+        <v>267</v>
+      </c>
+      <c r="C484">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>4</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+      <c r="C485">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B486">
+        <v>595</v>
+      </c>
+      <c r="C486">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>4</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+      <c r="C487">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B488">
+        <v>1359</v>
+      </c>
+      <c r="C488">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B489">
+        <v>261</v>
+      </c>
+      <c r="C489">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>4</v>
+      </c>
+      <c r="B490">
+        <v>827</v>
+      </c>
+      <c r="C490">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B491">
+        <v>1961</v>
+      </c>
+      <c r="C491">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>4</v>
+      </c>
+      <c r="B492">
+        <v>1305</v>
+      </c>
+      <c r="C492">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>4</v>
+      </c>
+      <c r="B493">
+        <v>904</v>
+      </c>
+      <c r="C493">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+      <c r="C494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B495">
+        <v>796</v>
+      </c>
+      <c r="C495">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B496">
+        <v>84</v>
+      </c>
+      <c r="C496">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>4</v>
+      </c>
+      <c r="B497">
+        <v>1801</v>
+      </c>
+      <c r="C497">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B498">
+        <v>2235</v>
+      </c>
+      <c r="C498">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+      <c r="C499">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>4</v>
+      </c>
+      <c r="B500">
+        <v>503</v>
+      </c>
+      <c r="C500">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B501">
+        <v>662</v>
+      </c>
+      <c r="C501">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>5</v>
+      </c>
+      <c r="B502">
+        <v>0</v>
+      </c>
+      <c r="C502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>5</v>
+      </c>
+      <c r="B503">
+        <v>169</v>
+      </c>
+      <c r="C503">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>5</v>
+      </c>
+      <c r="B504">
+        <v>151</v>
+      </c>
+      <c r="C504">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>5</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+      <c r="C505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>5</v>
+      </c>
+      <c r="B506">
+        <v>290</v>
+      </c>
+      <c r="C506">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>5</v>
+      </c>
+      <c r="B507">
+        <v>505</v>
+      </c>
+      <c r="C507">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>5</v>
+      </c>
+      <c r="B508">
+        <v>434</v>
+      </c>
+      <c r="C508">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>5</v>
+      </c>
+      <c r="B509">
+        <v>130</v>
+      </c>
+      <c r="C509">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>5</v>
+      </c>
+      <c r="B510">
+        <v>1451</v>
+      </c>
+      <c r="C510">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>5</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+      <c r="C511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>5</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+      <c r="C512">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>5</v>
+      </c>
+      <c r="B513">
+        <v>2285</v>
+      </c>
+      <c r="C513">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>5</v>
+      </c>
+      <c r="B514">
+        <v>560</v>
+      </c>
+      <c r="C514">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>5</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+      <c r="C515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>5</v>
+      </c>
+      <c r="B516">
+        <v>0</v>
+      </c>
+      <c r="C516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>5</v>
+      </c>
+      <c r="B517">
+        <v>1053</v>
+      </c>
+      <c r="C517">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>5</v>
+      </c>
+      <c r="B518">
+        <v>186</v>
+      </c>
+      <c r="C518">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>5</v>
+      </c>
+      <c r="B519">
+        <v>275</v>
+      </c>
+      <c r="C519">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>5</v>
+      </c>
+      <c r="B520">
+        <v>437</v>
+      </c>
+      <c r="C520">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>5</v>
+      </c>
+      <c r="B521">
+        <v>487</v>
+      </c>
+      <c r="C521">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>5</v>
+      </c>
+      <c r="B522">
+        <v>0</v>
+      </c>
+      <c r="C522">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>5</v>
+      </c>
+      <c r="B523">
+        <v>219</v>
+      </c>
+      <c r="C523">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>5</v>
+      </c>
+      <c r="B524">
+        <v>0</v>
+      </c>
+      <c r="C524">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>5</v>
+      </c>
+      <c r="B525">
+        <v>813</v>
+      </c>
+      <c r="C525">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>5</v>
+      </c>
+      <c r="B526">
+        <v>198</v>
+      </c>
+      <c r="C526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>5</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+      <c r="C527">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>5</v>
+      </c>
+      <c r="B528">
+        <v>159</v>
+      </c>
+      <c r="C528">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>5</v>
+      </c>
+      <c r="B529">
+        <v>98</v>
+      </c>
+      <c r="C529">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>5</v>
+      </c>
+      <c r="B530">
+        <v>304</v>
+      </c>
+      <c r="C530">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>5</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+      <c r="C531">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>5</v>
+      </c>
+      <c r="B532">
+        <v>0</v>
+      </c>
+      <c r="C532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>5</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+      <c r="C533">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>5</v>
+      </c>
+      <c r="B534">
+        <v>143</v>
+      </c>
+      <c r="C534">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>5</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+      <c r="C535">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>5</v>
+      </c>
+      <c r="B536">
+        <v>101</v>
+      </c>
+      <c r="C536">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>5</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+      <c r="C537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>5</v>
+      </c>
+      <c r="B538">
+        <v>0</v>
+      </c>
+      <c r="C538">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>5</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+      <c r="C539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>5</v>
+      </c>
+      <c r="B540">
+        <v>158</v>
+      </c>
+      <c r="C540">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>5</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+      <c r="C541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>5</v>
+      </c>
+      <c r="B542">
+        <v>145</v>
+      </c>
+      <c r="C542">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>5</v>
+      </c>
+      <c r="B543">
+        <v>92</v>
+      </c>
+      <c r="C543">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>5</v>
+      </c>
+      <c r="B544">
+        <v>297</v>
+      </c>
+      <c r="C544">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>5</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+      <c r="C545">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>5</v>
+      </c>
+      <c r="B546">
+        <v>1447</v>
+      </c>
+      <c r="C546">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>5</v>
+      </c>
+      <c r="B547">
+        <v>169</v>
+      </c>
+      <c r="C547">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>5</v>
+      </c>
+      <c r="B548">
+        <v>0</v>
+      </c>
+      <c r="C548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>5</v>
+      </c>
+      <c r="B549">
+        <v>194</v>
+      </c>
+      <c r="C549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>5</v>
+      </c>
+      <c r="B550">
+        <v>0</v>
+      </c>
+      <c r="C550">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>5</v>
+      </c>
+      <c r="B551">
+        <v>84</v>
+      </c>
+      <c r="C551">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>5</v>
+      </c>
+      <c r="B552">
+        <v>0</v>
+      </c>
+      <c r="C552">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>5</v>
+      </c>
+      <c r="B553">
+        <v>796</v>
+      </c>
+      <c r="C553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>5</v>
+      </c>
+      <c r="B554">
+        <v>300</v>
+      </c>
+      <c r="C554">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>5</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+      <c r="C555">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>5</v>
+      </c>
+      <c r="B556">
+        <v>576</v>
+      </c>
+      <c r="C556">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>5</v>
+      </c>
+      <c r="B557">
+        <v>114</v>
+      </c>
+      <c r="C557">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>5</v>
+      </c>
+      <c r="B558">
+        <v>472</v>
+      </c>
+      <c r="C558">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>5</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+      <c r="C559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>5</v>
+      </c>
+      <c r="B560">
+        <v>0</v>
+      </c>
+      <c r="C560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>5</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+      <c r="C561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>5</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>5</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>5</v>
+      </c>
+      <c r="B564">
+        <v>84</v>
+      </c>
+      <c r="C564">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>5</v>
+      </c>
+      <c r="B565">
+        <v>2149</v>
+      </c>
+      <c r="C565">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>5</v>
+      </c>
+      <c r="B566">
+        <v>123</v>
+      </c>
+      <c r="C566">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>5</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+      <c r="C567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>5</v>
+      </c>
+      <c r="B568">
+        <v>89</v>
+      </c>
+      <c r="C568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>5</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+      <c r="C569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>5</v>
+      </c>
+      <c r="B570">
+        <v>871</v>
+      </c>
+      <c r="C570">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>5</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+      <c r="C571">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>5</v>
+      </c>
+      <c r="B572">
+        <v>0</v>
+      </c>
+      <c r="C572">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>5</v>
+      </c>
+      <c r="B573">
+        <v>278</v>
+      </c>
+      <c r="C573">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>5</v>
+      </c>
+      <c r="B574">
+        <v>0</v>
+      </c>
+      <c r="C574">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>5</v>
+      </c>
+      <c r="B575">
+        <v>217</v>
+      </c>
+      <c r="C575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>5</v>
+      </c>
+      <c r="B576">
+        <v>0</v>
+      </c>
+      <c r="C576">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>5</v>
+      </c>
+      <c r="B577">
+        <v>0</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>5</v>
+      </c>
+      <c r="B578">
+        <v>160</v>
+      </c>
+      <c r="C578">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>5</v>
+      </c>
+      <c r="B579">
+        <v>0</v>
+      </c>
+      <c r="C579">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>5</v>
+      </c>
+      <c r="B580">
+        <v>178</v>
+      </c>
+      <c r="C580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>5</v>
+      </c>
+      <c r="B581">
+        <v>377</v>
+      </c>
+      <c r="C581">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>5</v>
+      </c>
+      <c r="B582">
+        <v>0</v>
+      </c>
+      <c r="C582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>5</v>
+      </c>
+      <c r="B583">
+        <v>0</v>
+      </c>
+      <c r="C583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>5</v>
+      </c>
+      <c r="B584">
+        <v>89</v>
+      </c>
+      <c r="C584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>5</v>
+      </c>
+      <c r="B585">
+        <v>115</v>
+      </c>
+      <c r="C585">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>5</v>
+      </c>
+      <c r="B586">
+        <v>962</v>
+      </c>
+      <c r="C586">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>5</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+      <c r="C587">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>5</v>
+      </c>
+      <c r="B588">
+        <v>288</v>
+      </c>
+      <c r="C588">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>5</v>
+      </c>
+      <c r="B589">
+        <v>0</v>
+      </c>
+      <c r="C589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>5</v>
+      </c>
+      <c r="B590">
+        <v>68</v>
+      </c>
+      <c r="C590">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>5</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+      <c r="C591">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>5</v>
+      </c>
+      <c r="B592">
+        <v>531</v>
+      </c>
+      <c r="C592">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>5</v>
+      </c>
+      <c r="B593">
+        <v>57</v>
+      </c>
+      <c r="C593">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>5</v>
+      </c>
+      <c r="B594">
+        <v>0</v>
+      </c>
+      <c r="C594">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>5</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+      <c r="C595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>5</v>
+      </c>
+      <c r="B596">
+        <v>184</v>
+      </c>
+      <c r="C596">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>5</v>
+      </c>
+      <c r="B597">
+        <v>0</v>
+      </c>
+      <c r="C597">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>5</v>
+      </c>
+      <c r="B598">
+        <v>360</v>
+      </c>
+      <c r="C598">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>5</v>
+      </c>
+      <c r="B599">
+        <v>0</v>
+      </c>
+      <c r="C599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>5</v>
+      </c>
+      <c r="B600">
+        <v>0</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>5</v>
+      </c>
+      <c r="B601">
+        <v>0</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:C601">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD9B1D8-1276-2C45-8BC5-6451E4B02CF1}">
   <dimension ref="A1:J601"/>
   <sheetViews>
@@ -53626,7 +61076,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:E601">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -53636,7 +61086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD39FBE-1068-D643-8952-95EF3A20FEB4}">
   <dimension ref="A1:Q601"/>
   <sheetViews>
